--- a/IG-Publisher/output/StructureDefinition-PaymentNotice.xlsx
+++ b/IG-Publisher/output/StructureDefinition-PaymentNotice.xlsx
@@ -745,46 +745,46 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="31.6796875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="31.0078125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="51.421875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="51.1328125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="47.703125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="40.98046875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="33.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="47.69921875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="41.3671875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.0859375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="32.79296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="22.671875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="52.33203125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="25.01171875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.6875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="22.67578125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="33.046875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="54.171875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="25.74609375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/IG-Publisher/output/StructureDefinition-PaymentNotice.xlsx
+++ b/IG-Publisher/output/StructureDefinition-PaymentNotice.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="179">
   <si>
     <t>Path</t>
   </si>
@@ -153,9 +153,6 @@
   </si>
   <si>
     <t>This resource provides the status of the payment for goods and services rendered, and the request and response resource references.</t>
-  </si>
-  <si>
-    <t>DomainResource</t>
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
@@ -332,16 +329,6 @@
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>DomainResource.extension</t>
   </si>
   <si>
@@ -365,6 +352,187 @@
     <t>DomainResource.modifierExtension</t>
   </si>
   <si>
+    <t>PaymentNotice.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>Business Identifier for the payment noctice</t>
+  </si>
+  <si>
+    <t>A unique identifier assigned to this payment notice.</t>
+  </si>
+  <si>
+    <t>Allows payment notices to be distinguished and referenced.</t>
+  </si>
+  <si>
+    <t>Event.identifier</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>PaymentNotice.status</t>
+  </si>
+  <si>
+    <t>active | cancelled | draft | entered-in-error</t>
+  </si>
+  <si>
+    <t>The status of the resource instance.</t>
+  </si>
+  <si>
+    <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
+  </si>
+  <si>
+    <t>Need to track the status of the resource as 'draft' resources may undergo further edits while 'active' resources are immutable and may only have their status changed to 'cancelled'.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>A code specifying the state of the resource instance.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/fm-status|4.0.1</t>
+  </si>
+  <si>
+    <t>Event.status</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>PaymentNotice.request</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Resource)
+</t>
+  </si>
+  <si>
+    <t>Request reference</t>
+  </si>
+  <si>
+    <t>Reference of resource for which payment is being made.</t>
+  </si>
+  <si>
+    <t>Event.basedOn</t>
+  </si>
+  <si>
+    <t>FiveWs.subject</t>
+  </si>
+  <si>
+    <t>PaymentNotice.response</t>
+  </si>
+  <si>
+    <t>Response reference</t>
+  </si>
+  <si>
+    <t>Reference of response to resource for which payment is being made.</t>
+  </si>
+  <si>
+    <t>PaymentNotice.created</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dateTime
+</t>
+  </si>
+  <si>
+    <t>Creation date</t>
+  </si>
+  <si>
+    <t>The date when this resource was created.</t>
+  </si>
+  <si>
+    <t>Need to record a timestamp for use by both the recipient and the issuer.</t>
+  </si>
+  <si>
+    <t>Event.occurrence[x]</t>
+  </si>
+  <si>
+    <t>FiveWs.recorded</t>
+  </si>
+  <si>
+    <t>PaymentNotice.provider</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization)
+</t>
+  </si>
+  <si>
+    <t>Responsible practitioner</t>
+  </si>
+  <si>
+    <t>The practitioner who is responsible for the services rendered to the patient.</t>
+  </si>
+  <si>
+    <t>Event.performer</t>
+  </si>
+  <si>
+    <t>FiveWs.source</t>
+  </si>
+  <si>
+    <t>B01</t>
+  </si>
+  <si>
+    <t>PaymentNotice.payment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(PaymentReconciliation)
+</t>
+  </si>
+  <si>
+    <t>Payment reference</t>
+  </si>
+  <si>
+    <t>A reference to the payment which is the subject of this notice.</t>
+  </si>
+  <si>
+    <t>Need to identify the actual payment.</t>
+  </si>
+  <si>
+    <t>PaymentNotice.paymentDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date
+</t>
+  </si>
+  <si>
+    <t>Payment or clearing date</t>
+  </si>
+  <si>
+    <t>The date when the above payment action occurred.</t>
+  </si>
+  <si>
+    <t>Need to convey the date when the action being notified occurred.</t>
+  </si>
+  <si>
+    <t>PaymentNotice.payee</t>
+  </si>
+  <si>
+    <t>Party being paid</t>
+  </si>
+  <si>
+    <t>The party who will receive or has received payment that is the subject of this notification.</t>
+  </si>
+  <si>
+    <t>PaymentNotice.recipient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
+  </si>
+  <si>
+    <t>Party being notified</t>
+  </si>
+  <si>
+    <t>The party who is notified of the payment status.</t>
+  </si>
+  <si>
+    <t>Need to identified the recipient of the notification.</t>
+  </si>
+  <si>
     <t>PaymentNotice.amount</t>
   </si>
   <si>
@@ -381,95 +549,6 @@
     <t>Provided for validation purposes.</t>
   </si>
   <si>
-    <t>PaymentNotice.created</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dateTime
-</t>
-  </si>
-  <si>
-    <t>Creation date</t>
-  </si>
-  <si>
-    <t>The date when this resource was created.</t>
-  </si>
-  <si>
-    <t>Need to record a timestamp for use by both the recipient and the issuer.</t>
-  </si>
-  <si>
-    <t>Event.occurrence[x]</t>
-  </si>
-  <si>
-    <t>FiveWs.recorded</t>
-  </si>
-  <si>
-    <t>PaymentNotice.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>Business Identifier for the payment noctice</t>
-  </si>
-  <si>
-    <t>A unique identifier assigned to this payment notice.</t>
-  </si>
-  <si>
-    <t>Allows payment notices to be distinguished and referenced.</t>
-  </si>
-  <si>
-    <t>Event.identifier</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>PaymentNotice.payee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization)
-</t>
-  </si>
-  <si>
-    <t>Party being paid</t>
-  </si>
-  <si>
-    <t>The party who will receive or has received payment that is the subject of this notification.</t>
-  </si>
-  <si>
-    <t>PaymentNotice.payment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(PaymentReconciliation)
-</t>
-  </si>
-  <si>
-    <t>Payment reference</t>
-  </si>
-  <si>
-    <t>A reference to the payment which is the subject of this notice.</t>
-  </si>
-  <si>
-    <t>Need to identify the actual payment.</t>
-  </si>
-  <si>
-    <t>PaymentNotice.paymentDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">date
-</t>
-  </si>
-  <si>
-    <t>Payment or clearing date</t>
-  </si>
-  <si>
-    <t>The date when the above payment action occurred.</t>
-  </si>
-  <si>
-    <t>Need to convey the date when the action being notified occurred.</t>
-  </si>
-  <si>
     <t>PaymentNotice.paymentStatus</t>
   </si>
   <si>
@@ -496,98 +575,6 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/payment-status</t>
-  </si>
-  <si>
-    <t>PaymentNotice.provider</t>
-  </si>
-  <si>
-    <t>Responsible practitioner</t>
-  </si>
-  <si>
-    <t>The practitioner who is responsible for the services rendered to the patient.</t>
-  </si>
-  <si>
-    <t>Event.performer</t>
-  </si>
-  <si>
-    <t>FiveWs.source</t>
-  </si>
-  <si>
-    <t>B01</t>
-  </si>
-  <si>
-    <t>PaymentNotice.recipient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
-  </si>
-  <si>
-    <t>Party being notified</t>
-  </si>
-  <si>
-    <t>The party who is notified of the payment status.</t>
-  </si>
-  <si>
-    <t>Need to identified the recipient of the notification.</t>
-  </si>
-  <si>
-    <t>PaymentNotice.request</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Resource)
-</t>
-  </si>
-  <si>
-    <t>Request reference</t>
-  </si>
-  <si>
-    <t>Reference of resource for which payment is being made.</t>
-  </si>
-  <si>
-    <t>Event.basedOn</t>
-  </si>
-  <si>
-    <t>FiveWs.subject</t>
-  </si>
-  <si>
-    <t>PaymentNotice.response</t>
-  </si>
-  <si>
-    <t>Response reference</t>
-  </si>
-  <si>
-    <t>Reference of response to resource for which payment is being made.</t>
-  </si>
-  <si>
-    <t>PaymentNotice.status</t>
-  </si>
-  <si>
-    <t>active | cancelled | draft | entered-in-error</t>
-  </si>
-  <si>
-    <t>The status of the resource instance.</t>
-  </si>
-  <si>
-    <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
-  </si>
-  <si>
-    <t>Need to track the status of the resource as 'draft' resources may undergo further edits while 'active' resources are immutable and may only have their status changed to 'cancelled'.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>A code specifying the state of the resource instance.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/fm-status|4.0.1</t>
-  </si>
-  <si>
-    <t>Event.status</t>
-  </si>
-  <si>
-    <t>FiveWs.status</t>
   </si>
 </sst>
 </file>
@@ -745,46 +732,46 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="31.0078125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="31.6796875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="51.1328125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="51.421875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="47.69921875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="41.3671875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="32.79296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="47.703125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="40.98046875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="33.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.6875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="22.67578125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="33.046875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="54.171875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="25.74609375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="22.671875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="52.33203125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="25.01171875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -991,7 +978,7 @@
         <v>41</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AF2" t="s" s="2">
         <v>42</v>
@@ -1003,13 +990,13 @@
         <v>41</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
         <v>48</v>
-      </c>
-      <c r="AK2" t="s" s="2">
-        <v>49</v>
       </c>
       <c r="AL2" t="s" s="2">
         <v>41</v>
@@ -1023,7 +1010,7 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -1034,28 +1021,28 @@
         <v>42</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>53</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>54</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>55</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>56</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -1105,13 +1092,13 @@
         <v>41</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>41</v>
@@ -1137,7 +1124,7 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -1148,25 +1135,25 @@
         <v>42</v>
       </c>
       <c r="F4" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>52</v>
-      </c>
       <c r="J4" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>59</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>60</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>61</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -1217,19 +1204,19 @@
         <v>41</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AH4" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>41</v>
@@ -1249,7 +1236,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -1260,28 +1247,28 @@
         <v>42</v>
       </c>
       <c r="F5" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="G5" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>52</v>
-      </c>
       <c r="I5" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>65</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>66</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>67</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>68</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -1331,19 +1318,19 @@
         <v>41</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>41</v>
@@ -1363,7 +1350,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1374,7 +1361,7 @@
         <v>42</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>41</v>
@@ -1386,16 +1373,16 @@
         <v>41</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>71</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>72</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>73</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>74</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -1421,43 +1408,43 @@
         <v>41</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X6" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="Y6" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>77</v>
-      </c>
-      <c r="Z6" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>41</v>
@@ -1477,18 +1464,18 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>41</v>
@@ -1500,16 +1487,16 @@
         <v>41</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>83</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -1559,25 +1546,25 @@
         <v>41</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>41</v>
@@ -1591,11 +1578,11 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -1614,16 +1601,16 @@
         <v>41</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>92</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -1673,7 +1660,7 @@
         <v>41</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>42</v>
@@ -1691,7 +1678,7 @@
         <v>41</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>41</v>
@@ -1705,11 +1692,11 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -1728,16 +1715,16 @@
         <v>41</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>99</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>100</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -1775,19 +1762,19 @@
         <v>41</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>102</v>
+        <v>41</v>
       </c>
       <c r="AC9" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>103</v>
+        <v>41</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>42</v>
@@ -1799,13 +1786,13 @@
         <v>41</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>41</v>
@@ -1819,11 +1806,11 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -1836,25 +1823,25 @@
         <v>41</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>41</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="O10" t="s" s="2">
         <v>41</v>
@@ -1891,19 +1878,19 @@
         <v>41</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>102</v>
+        <v>41</v>
       </c>
       <c r="AC10" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>103</v>
+        <v>41</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>42</v>
@@ -1915,13 +1902,13 @@
         <v>41</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>41</v>
@@ -1935,7 +1922,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -1943,10 +1930,10 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>41</v>
@@ -1955,20 +1942,20 @@
         <v>41</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" t="s" s="2">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>41</v>
@@ -2017,28 +2004,28 @@
         <v>41</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>41</v>
+        <v>112</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>41</v>
+        <v>113</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>41</v>
@@ -2049,7 +2036,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2057,32 +2044,34 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="F12" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G12" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H12" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="F12" t="s" s="2">
+      <c r="I12" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="G12" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H12" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I12" t="s" s="2">
-        <v>52</v>
-      </c>
       <c r="J12" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="K12" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="M12" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="K12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>118</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="M12" s="2"/>
-      <c r="N12" t="s" s="2">
-        <v>120</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>41</v>
@@ -2107,13 +2096,13 @@
         <v>41</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>41</v>
+        <v>119</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>41</v>
+        <v>120</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>41</v>
+        <v>121</v>
       </c>
       <c r="Z12" t="s" s="2">
         <v>41</v>
@@ -2131,28 +2120,28 @@
         <v>41</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>41</v>
@@ -2163,7 +2152,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2171,10 +2160,10 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>41</v>
@@ -2186,18 +2175,16 @@
         <v>41</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M13" s="2"/>
-      <c r="N13" t="s" s="2">
-        <v>127</v>
-      </c>
+      <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
         <v>41</v>
       </c>
@@ -2245,25 +2232,25 @@
         <v>41</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>128</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>129</v>
@@ -2285,10 +2272,10 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>41</v>
@@ -2300,13 +2287,13 @@
         <v>41</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="L14" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>133</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2363,22 +2350,22 @@
         <v>42</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>41</v>
+        <v>129</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>41</v>
@@ -2389,7 +2376,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2397,32 +2384,32 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="F15" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I15" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="F15" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G15" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H15" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I15" t="s" s="2">
-        <v>52</v>
-      </c>
       <c r="J15" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="L15" t="s" s="2">
         <v>136</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>137</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>41</v>
@@ -2471,28 +2458,28 @@
         <v>41</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>41</v>
+        <v>138</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>41</v>
+        <v>139</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>41</v>
@@ -2503,7 +2490,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2511,10 +2498,10 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>41</v>
@@ -2526,18 +2513,16 @@
         <v>41</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M16" s="2"/>
-      <c r="N16" t="s" s="2">
-        <v>143</v>
-      </c>
+      <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>41</v>
       </c>
@@ -2585,39 +2570,39 @@
         <v>41</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>41</v>
+        <v>144</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>41</v>
+        <v>145</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>41</v>
+        <v>146</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>41</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2625,34 +2610,32 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F17" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I17" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="G17" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H17" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I17" t="s" s="2">
-        <v>41</v>
-      </c>
       <c r="J17" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>148</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M17" s="2"/>
       <c r="N17" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>41</v>
@@ -2677,13 +2660,13 @@
         <v>41</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>150</v>
+        <v>41</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>151</v>
+        <v>41</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>152</v>
+        <v>41</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>41</v>
@@ -2701,25 +2684,25 @@
         <v>41</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>41</v>
@@ -2733,7 +2716,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2741,10 +2724,10 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>41</v>
@@ -2756,7 +2739,7 @@
         <v>41</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>131</v>
+        <v>153</v>
       </c>
       <c r="K18" t="s" s="2">
         <v>154</v>
@@ -2765,7 +2748,9 @@
         <v>155</v>
       </c>
       <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
+      <c r="N18" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="O18" t="s" s="2">
         <v>41</v>
       </c>
@@ -2813,39 +2798,39 @@
         <v>41</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>156</v>
+        <v>41</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>157</v>
+        <v>41</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>158</v>
+        <v>41</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>158</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -2853,10 +2838,10 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>41</v>
@@ -2865,21 +2850,19 @@
         <v>41</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="M19" s="2"/>
-      <c r="N19" t="s" s="2">
-        <v>163</v>
-      </c>
+      <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>41</v>
       </c>
@@ -2927,25 +2910,25 @@
         <v>41</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>41</v>
@@ -2959,7 +2942,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -2967,31 +2950,33 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="F20" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G20" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I20" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="F20" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G20" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H20" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I20" t="s" s="2">
-        <v>41</v>
-      </c>
       <c r="J20" t="s" s="2">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
+      <c r="N20" t="s" s="2">
+        <v>164</v>
+      </c>
       <c r="O20" t="s" s="2">
         <v>41</v>
       </c>
@@ -3039,28 +3024,28 @@
         <v>41</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>168</v>
+        <v>41</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>169</v>
+        <v>41</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>41</v>
@@ -3071,7 +3056,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3079,31 +3064,33 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="F21" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I21" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="F21" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G21" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H21" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I21" t="s" s="2">
-        <v>41</v>
-      </c>
       <c r="J21" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
+      <c r="N21" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="O21" t="s" s="2">
         <v>41</v>
       </c>
@@ -3151,28 +3138,28 @@
         <v>41</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>169</v>
+        <v>41</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>41</v>
@@ -3183,7 +3170,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3191,34 +3178,34 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>71</v>
+        <v>171</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>177</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>41</v>
@@ -3243,14 +3230,14 @@
         <v>41</v>
       </c>
       <c r="W22" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="Y22" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="X22" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="Y22" t="s" s="2">
-        <v>180</v>
-      </c>
       <c r="Z22" t="s" s="2">
         <v>41</v>
       </c>
@@ -3267,28 +3254,28 @@
         <v>41</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>181</v>
+        <v>41</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>182</v>
+        <v>41</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>41</v>
